--- a/frontend/test.xlsx
+++ b/frontend/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prithwish\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prithwish\Desktop\WD\Node\task-management-app\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B649C6-E315-4151-9184-D6A9BECF1AED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5176C9B-42F0-4517-B75E-BDE95C20715B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,66 +34,6 @@
     <t>pdf_path</t>
   </si>
   <si>
-    <t>Test task excel 1</t>
-  </si>
-  <si>
-    <t>Test task excel 2</t>
-  </si>
-  <si>
-    <t>Test task excel 3</t>
-  </si>
-  <si>
-    <t>Test task excel 4</t>
-  </si>
-  <si>
-    <t>Test task excel 5</t>
-  </si>
-  <si>
-    <t>Test task excel 6</t>
-  </si>
-  <si>
-    <t>Test task excel 7</t>
-  </si>
-  <si>
-    <t>Test task excel 8</t>
-  </si>
-  <si>
-    <t>Test task excel 9</t>
-  </si>
-  <si>
-    <t>Test task excel 10</t>
-  </si>
-  <si>
-    <t>Test task excel 1 description 1</t>
-  </si>
-  <si>
-    <t>Test task excel 1 description 2</t>
-  </si>
-  <si>
-    <t>Test task excel 1 description 3</t>
-  </si>
-  <si>
-    <t>Test task excel 1 description 4</t>
-  </si>
-  <si>
-    <t>Test task excel 1 description 5</t>
-  </si>
-  <si>
-    <t>Test task excel 1 description 6</t>
-  </si>
-  <si>
-    <t>Test task excel 1 description 7</t>
-  </si>
-  <si>
-    <t>Test task excel 1 description 8</t>
-  </si>
-  <si>
-    <t>Test task excel 1 description 9</t>
-  </si>
-  <si>
-    <t>Test task excel 1 description 10</t>
-  </si>
-  <si>
     <t>test1.pdf</t>
   </si>
   <si>
@@ -128,6 +68,66 @@
   </si>
   <si>
     <t>finished</t>
+  </si>
+  <si>
+    <t>Test task description 2</t>
+  </si>
+  <si>
+    <t>Test task description 1</t>
+  </si>
+  <si>
+    <t>Test task description 3</t>
+  </si>
+  <si>
+    <t>Test task description 4</t>
+  </si>
+  <si>
+    <t>Test task description 5</t>
+  </si>
+  <si>
+    <t>Test task description 6</t>
+  </si>
+  <si>
+    <t>Test task description 7</t>
+  </si>
+  <si>
+    <t>Test task description 8</t>
+  </si>
+  <si>
+    <t>Test task description 9</t>
+  </si>
+  <si>
+    <t>Test task description 10</t>
+  </si>
+  <si>
+    <t>Test task 1</t>
+  </si>
+  <si>
+    <t>Test task 2</t>
+  </si>
+  <si>
+    <t>Test task 3</t>
+  </si>
+  <si>
+    <t>Test task 4</t>
+  </si>
+  <si>
+    <t>Test task 5</t>
+  </si>
+  <si>
+    <t>Test task 6</t>
+  </si>
+  <si>
+    <t>Test task 7</t>
+  </si>
+  <si>
+    <t>Test task 8</t>
+  </si>
+  <si>
+    <t>Test task 9</t>
+  </si>
+  <si>
+    <t>Test task 10</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -425,142 +425,142 @@
     </row>
     <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
